--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>18.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.41</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>84.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.13</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>004351</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1186,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1308,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -1276,11 +1371,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0.22</v>
@@ -1292,14 +1387,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -1308,14 +1403,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6">
@@ -1324,13 +1419,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1466,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1387,11 +1482,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0.22</v>
@@ -1403,14 +1498,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -1419,14 +1514,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -1435,13 +1530,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,133 +457,337 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6727</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1878</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -610,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>91.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6622</t>
+          <t>0.0950</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +882,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0826</t>
+          <t>0.0940</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -726,26 +930,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>80.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0284</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +957,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -923,139 +1259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1179</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1035</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1082,7 +1286,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1112,36 +1316,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0950</t>
+          <t>0.6622</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1150,36 +1354,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>001056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>84.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0940</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1198,214 +1402,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.43</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0284</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1419,144 +1435,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.86</v>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,11 +537,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0.22</v>
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>004351</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -760,26 +815,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -788,6 +843,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -957,7 +1106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1082,176 +1231,6 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4052</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1341</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0915</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1326,26 +1305,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6622</t>
+          <t>0.4052</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1354,36 +1333,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0826</t>
+          <t>0.1341</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1392,36 +1371,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1430,6 +1409,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
+++ b/数据整理/stocks/A股/深证主板/002949-华阳国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -553,11 +554,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.22</v>
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -616,7 +633,233 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -741,100 +984,6 @@
       </c>
       <c r="H3" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -909,26 +1058,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -937,6 +1086,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1106,7 +1349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1231,176 +1474,6 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4052</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1341</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0915</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1475,26 +1548,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6622</t>
+          <t>0.4052</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1503,36 +1576,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0826</t>
+          <t>0.1341</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1541,36 +1614,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1584,128 +1657,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.28</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.41</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6727</t>
+          <t>0.6622</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>001056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>84.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1878</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>